--- a/tests/data/sas_benchmark.xlsx
+++ b/tests/data/sas_benchmark.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kai/GitHub/StepReg/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lij11/Dropbox (UMass Medical School)/Project/UMMS/Github/JunhuiLi1017/StepReg/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06ED3964-F7B1-5B41-8CDB-617CB849023B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4896737A-398C-0347-B9E0-9D9C30F42B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="5240" windowWidth="23720" windowHeight="13900" xr2:uid="{29101AD1-6FAF-C449-8C59-8CA43C027762}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{29101AD1-6FAF-C449-8C59-8CA43C027762}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="36">
   <si>
     <t>test model</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>bidirection</t>
-  </si>
-  <si>
-    <t>NA (can be done by sas though)</t>
   </si>
   <si>
     <t>subset</t>
@@ -538,7 +535,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,7 +617,7 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -811,8 +808,8 @@
       <c r="K9" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>27</v>
+      <c r="L9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -942,7 +939,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>26</v>
@@ -951,7 +948,7 @@
         <v>19</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -965,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
@@ -974,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>26</v>
@@ -983,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -997,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
@@ -1006,7 +1003,7 @@
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>26</v>
@@ -1015,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1029,7 +1026,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
@@ -1038,7 +1035,7 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>26</v>
@@ -1047,7 +1044,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1122,28 +1119,28 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1154,33 +1151,33 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1189,7 +1186,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
         <v>24</v>
@@ -1198,7 +1195,7 @@
         <v>19</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>26</v>
@@ -1206,7 +1203,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1215,12 +1212,12 @@
         <v>6</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1229,12 +1226,12 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1243,12 +1240,12 @@
         <v>20</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1262,7 +1259,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1276,30 +1273,30 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/sas_benchmark.xlsx
+++ b/tests/data/sas_benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lij11/Dropbox (UMass Medical School)/Project/UMMS/Github/JunhuiLi1017/StepReg/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Dropbox (UMass Medical School)/GitHub/StepReg/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4896737A-398C-0347-B9E0-9D9C30F42B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48B7A74-62A9-B34D-83FD-12E1B86820B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{29101AD1-6FAF-C449-8C59-8CA43C027762}"/>
+    <workbookView xWindow="27820" yWindow="1980" windowWidth="30260" windowHeight="19040" xr2:uid="{29101AD1-6FAF-C449-8C59-8CA43C027762}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="34">
   <si>
     <t>test model</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>CP</t>
-  </si>
-  <si>
-    <t>10% differ</t>
-  </si>
-  <si>
-    <t>&gt; 10% differ</t>
   </si>
   <si>
     <t>HQ</t>
@@ -211,13 +205,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038EBE37-CDA5-2245-8893-6F611E8FFBA3}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -573,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>2</v>
@@ -582,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -599,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -608,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>6</v>
@@ -617,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -634,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -643,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
@@ -662,26 +657,28 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="H5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>12</v>
+      <c r="L5" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -694,26 +691,28 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="H6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>13</v>
+      <c r="L6" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -724,28 +723,28 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
         <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -756,28 +755,28 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -788,25 +787,25 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
         <v>7</v>
@@ -820,25 +819,25 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
         <v>7</v>
@@ -852,25 +851,25 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
         <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
         <v>7</v>
@@ -884,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
         <v>7</v>
@@ -910,50 +909,50 @@
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -962,30 +961,30 @@
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -994,216 +993,216 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
         <v>14</v>
       </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
       <c r="J18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1212,12 +1211,12 @@
         <v>6</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1226,77 +1225,77 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
         <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/sas_benchmark.xlsx
+++ b/tests/data/sas_benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Dropbox (UMass Medical School)/GitHub/StepReg/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lij11/Dropbox (UMass Medical School)/Project/UMMS/Github/JunhuiLi1017/StepReg/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48B7A74-62A9-B34D-83FD-12E1B86820B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE17AE0-76D7-C14E-8567-3E7596C5F4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27820" yWindow="1980" windowWidth="30260" windowHeight="19040" xr2:uid="{29101AD1-6FAF-C449-8C59-8CA43C027762}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" xr2:uid="{29101AD1-6FAF-C449-8C59-8CA43C027762}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="33">
   <si>
     <t>test model</t>
   </si>
@@ -115,18 +115,12 @@
     <t>subset</t>
   </si>
   <si>
-    <t>p-valude differ</t>
-  </si>
-  <si>
     <t>NA?</t>
   </si>
   <si>
     <t>cox_model1</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>IC(3/2)</t>
   </si>
   <si>
@@ -136,7 +130,10 @@
     <t>systematicall smaller</t>
   </si>
   <si>
-    <t>close but not identical</t>
+    <t>systematicall</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
 </sst>
 </file>
@@ -173,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +189,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -205,14 +208,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038EBE37-CDA5-2245-8893-6F611E8FFBA3}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,27 +659,25 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -691,27 +691,25 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -937,8 +935,8 @@
       <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>26</v>
+      <c r="H14" t="s">
+        <v>7</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>24</v>
@@ -946,8 +944,8 @@
       <c r="K14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>29</v>
+      <c r="L14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -960,8 +958,8 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -969,8 +967,8 @@
       <c r="G15" t="s">
         <v>6</v>
       </c>
-      <c r="H15" t="s">
-        <v>27</v>
+      <c r="H15" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>24</v>
@@ -979,7 +977,7 @@
         <v>6</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -993,7 +991,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1002,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>24</v>
@@ -1011,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1024,8 +1022,8 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -1033,8 +1031,8 @@
       <c r="G17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" t="s">
-        <v>27</v>
+      <c r="H17" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>24</v>
@@ -1043,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1118,28 +1116,28 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1150,33 +1148,33 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1185,7 +1183,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -1194,15 +1192,24 @@
         <v>17</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1211,12 +1218,12 @@
         <v>6</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1225,12 +1232,12 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1239,12 +1246,12 @@
         <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1258,7 +1265,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1272,30 +1279,30 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
